--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43894,6 +43894,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43931,6 +43931,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43968,6 +43968,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44042,6 +44042,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44077,6 +44077,43 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44114,6 +44114,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44151,6 +44151,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44188,6 +44188,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44225,6 +44225,80 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44299,6 +44299,78 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44371,6 +44371,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44406,6 +44406,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44443,6 +44443,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44480,6 +44480,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44517,6 +44517,80 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44591,6 +44591,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44628,6 +44628,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1936"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69550,6 +69550,43 @@
         </is>
       </c>
     </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1937" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I1938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69587,6 +69587,43 @@
         </is>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1938" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1938"/>
+  <dimension ref="A1:I1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69624,6 +69624,43 @@
         </is>
       </c>
     </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1939" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69661,6 +69661,43 @@
         </is>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1940" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:I1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69698,6 +69698,43 @@
         </is>
       </c>
     </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1941" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1941"/>
+  <dimension ref="A1:I1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69735,6 +69735,43 @@
         </is>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1942" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7062.xlsx
+++ b/data/7062.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1942"/>
+  <dimension ref="A1:I1943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69772,6 +69772,43 @@
         </is>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>7062</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>KHIND</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1943" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
